--- a/src/test/resources/TestData/DynamicMulti.xlsx
+++ b/src/test/resources/TestData/DynamicMulti.xlsx
@@ -13,10 +13,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>tests.SnapdealScenariosTest</t>
+    <t>tests.PimHrmTestcases</t>
   </si>
   <si>
-    <t>tests.PimHrmTestCases</t>
+    <t>tests.SnapdealScenariosTest</t>
   </si>
 </sst>
 </file>
@@ -55,7 +55,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
